--- a/US/Massachusetts/Massachusetts UCOD ages by month.xlsx
+++ b/US/Massachusetts/Massachusetts UCOD ages by month.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\covid\US\Massachusetts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C90BA66-54FD-4B46-89C1-9456C4D00CBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED14C75-ADB4-4F90-9447-6242DFA932BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1620" windowWidth="22755" windowHeight="13860" activeTab="1" xr2:uid="{BCCD4F13-AB7E-4447-9C23-DAD704EC7C8E}"/>
+    <workbookView minimized="1" xWindow="1680" yWindow="1620" windowWidth="22755" windowHeight="13860" firstSheet="1" activeTab="1" xr2:uid="{BCCD4F13-AB7E-4447-9C23-DAD704EC7C8E}"/>
   </bookViews>
   <sheets>
     <sheet name="by age and yr" sheetId="3" r:id="rId1"/>
@@ -7492,6 +7492,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
       <c14:pivotOptions>
@@ -8703,6 +8704,165 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.35722</cdr:x>
+      <cdr:y>0.18259</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.4835</cdr:x>
+      <cdr:y>0.27909</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCAC318-6360-4F7B-F53E-F99F850F3E40}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1" flipV="1">
+          <a:off x="2990851" y="919164"/>
+          <a:ext cx="1057275" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.49261</cdr:x>
+      <cdr:y>0.26395</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79408</cdr:x>
+      <cdr:y>0.38694</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5D8B06B-8DDE-339A-4F3F-2D988A0370E6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4124325" y="1328739"/>
+          <a:ext cx="2524125" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200"/>
+            <a:t>Huge COVID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t> waves preceding Mar-Aug 2021 </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>time period SW wants you to focus on creating </a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" kern="1200" baseline="0"/>
+            <a:t>PFE that depresses deaths</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" kern="1200"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.44596</cdr:x>
+      <cdr:y>0.2977</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48843</cdr:x>
+      <cdr:y>0.37938</cdr:y>
+    </cdr:to>
+    <cdr:cxnSp macro="">
+      <cdr:nvCxnSpPr>
+        <cdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784AC0EF-B7E8-936C-5A91-46EBC45DE8CF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvCxnSpPr/>
+      </cdr:nvCxnSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="3733801" y="1498600"/>
+          <a:ext cx="355599" cy="411164"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+    </cdr:cxnSp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21967,8 +22127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B875B8A-1658-4597-8610-343317C3EA7D}">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
